--- a/Code/Results/Cases/Case_1_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_130/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9798906575194964</v>
+        <v>1.078796209455121</v>
       </c>
       <c r="D2">
-        <v>1.029481219910615</v>
+        <v>1.065371551027789</v>
       </c>
       <c r="E2">
-        <v>0.9994810698302949</v>
+        <v>1.079562070010494</v>
       </c>
       <c r="F2">
-        <v>1.017161158257424</v>
+        <v>1.084260198779201</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046474378521636</v>
+        <v>1.042938977784816</v>
       </c>
       <c r="J2">
-        <v>1.002689934680766</v>
+        <v>1.083683902046142</v>
       </c>
       <c r="K2">
-        <v>1.040544562832226</v>
+        <v>1.068084970606566</v>
       </c>
       <c r="L2">
-        <v>1.01094763891158</v>
+        <v>1.082237796409068</v>
       </c>
       <c r="M2">
-        <v>1.02838647803267</v>
+        <v>1.086923680630766</v>
       </c>
       <c r="N2">
-        <v>1.004113869398155</v>
+        <v>1.085222857487328</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9946067180140743</v>
+        <v>1.081365451188037</v>
       </c>
       <c r="D3">
-        <v>1.036725916080496</v>
+        <v>1.066607333607261</v>
       </c>
       <c r="E3">
-        <v>1.011693371144196</v>
+        <v>1.081721707774545</v>
       </c>
       <c r="F3">
-        <v>1.028072023619823</v>
+        <v>1.086176982265449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049071663621679</v>
+        <v>1.04327750284408</v>
       </c>
       <c r="J3">
-        <v>1.015245496985774</v>
+        <v>1.085906404367815</v>
       </c>
       <c r="K3">
-        <v>1.046909495179402</v>
+        <v>1.069135088482449</v>
       </c>
       <c r="L3">
-        <v>1.022178787828133</v>
+        <v>1.08421227103245</v>
       </c>
       <c r="M3">
-        <v>1.038357888054283</v>
+        <v>1.088656794800199</v>
       </c>
       <c r="N3">
-        <v>1.01668726204178</v>
+        <v>1.087448516017222</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003633745395555</v>
+        <v>1.083020839256943</v>
       </c>
       <c r="D4">
-        <v>1.04118652602271</v>
+        <v>1.067402283777456</v>
       </c>
       <c r="E4">
-        <v>1.019193901226839</v>
+        <v>1.083112673978134</v>
       </c>
       <c r="F4">
-        <v>1.0347788763161</v>
+        <v>1.087411109476947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050653139624249</v>
+        <v>1.043493374184057</v>
       </c>
       <c r="J4">
-        <v>1.022944954132429</v>
+        <v>1.087337427875716</v>
       </c>
       <c r="K4">
-        <v>1.050812034363434</v>
+        <v>1.069809345860253</v>
       </c>
       <c r="L4">
-        <v>1.029066063091014</v>
+        <v>1.08548305714028</v>
       </c>
       <c r="M4">
-        <v>1.044474917054621</v>
+        <v>1.089771654960703</v>
       </c>
       <c r="N4">
-        <v>1.024397653300724</v>
+        <v>1.088881571742646</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007322302398721</v>
+        <v>1.083715115140304</v>
       </c>
       <c r="D5">
-        <v>1.043012276281496</v>
+        <v>1.067735377492369</v>
       </c>
       <c r="E5">
-        <v>1.022260509869064</v>
+        <v>1.083695926238086</v>
       </c>
       <c r="F5">
-        <v>1.037522026252371</v>
+        <v>1.087928493547466</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051296222053604</v>
+        <v>1.043583372508979</v>
       </c>
       <c r="J5">
-        <v>1.026090257843666</v>
+        <v>1.087937374468997</v>
       </c>
       <c r="K5">
-        <v>1.052405583905459</v>
+        <v>1.070091566713916</v>
       </c>
       <c r="L5">
-        <v>1.031879436879702</v>
+        <v>1.086015695845035</v>
       </c>
       <c r="M5">
-        <v>1.046973949380787</v>
+        <v>1.090238796876561</v>
       </c>
       <c r="N5">
-        <v>1.027547423704002</v>
+        <v>1.089482370328904</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007935703500086</v>
+        <v>1.083831591742855</v>
       </c>
       <c r="D6">
-        <v>1.043316053608959</v>
+        <v>1.067791241210802</v>
       </c>
       <c r="E6">
-        <v>1.022770576152501</v>
+        <v>1.083793769398386</v>
       </c>
       <c r="F6">
-        <v>1.037978344727951</v>
+        <v>1.088015280904546</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05140297308055</v>
+        <v>1.043598439599718</v>
       </c>
       <c r="J6">
-        <v>1.026613263889748</v>
+        <v>1.088038012212919</v>
       </c>
       <c r="K6">
-        <v>1.05267050805952</v>
+        <v>1.070138880800774</v>
       </c>
       <c r="L6">
-        <v>1.032347236761706</v>
+        <v>1.086105035442126</v>
       </c>
       <c r="M6">
-        <v>1.047389492259431</v>
+        <v>1.090317142311444</v>
       </c>
       <c r="N6">
-        <v>1.02807117247866</v>
+        <v>1.089583150989965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003683435623361</v>
+        <v>1.083030122623678</v>
       </c>
       <c r="D7">
-        <v>1.041211110356584</v>
+        <v>1.067406738903143</v>
       </c>
       <c r="E7">
-        <v>1.019235206297786</v>
+        <v>1.083120473306175</v>
       </c>
       <c r="F7">
-        <v>1.034815820883314</v>
+        <v>1.087418028415809</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050661815703134</v>
+        <v>1.043494579699833</v>
       </c>
       <c r="J7">
-        <v>1.022987329386665</v>
+        <v>1.087345450843356</v>
       </c>
       <c r="K7">
-        <v>1.050833506868182</v>
+        <v>1.069813121746203</v>
       </c>
       <c r="L7">
-        <v>1.02910396715658</v>
+        <v>1.085490180523141</v>
       </c>
       <c r="M7">
-        <v>1.044508585185156</v>
+        <v>1.089777902965455</v>
       </c>
       <c r="N7">
-        <v>1.024440088732681</v>
+        <v>1.08888960610382</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9849745839626015</v>
+        <v>1.079665991512102</v>
       </c>
       <c r="D8">
-        <v>1.031979860274493</v>
+        <v>1.065790170254847</v>
       </c>
       <c r="E8">
-        <v>1.003697721930566</v>
+        <v>1.080293290844371</v>
       </c>
       <c r="F8">
-        <v>1.020927031655876</v>
+        <v>1.084909279391052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047373962281436</v>
+        <v>1.043054045739554</v>
       </c>
       <c r="J8">
-        <v>1.007027804762028</v>
+        <v>1.084436498342091</v>
       </c>
       <c r="K8">
-        <v>1.042743390910128</v>
+        <v>1.06844095815391</v>
       </c>
       <c r="L8">
-        <v>1.014827837114233</v>
+        <v>1.082906515338492</v>
       </c>
       <c r="M8">
-        <v>1.031830802208316</v>
+        <v>1.087510775502377</v>
       </c>
       <c r="N8">
-        <v>1.008457899752494</v>
+        <v>1.085976522556342</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9475226072515269</v>
+        <v>1.073681604954219</v>
       </c>
       <c r="D9">
-        <v>1.013697546382336</v>
+        <v>1.062904879800143</v>
       </c>
       <c r="E9">
-        <v>0.9727021409639587</v>
+        <v>1.075260224723335</v>
       </c>
       <c r="F9">
-        <v>0.9932877759675838</v>
+        <v>1.080439926693055</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040710417613731</v>
+        <v>1.042253136059071</v>
       </c>
       <c r="J9">
-        <v>0.9750750108750365</v>
+        <v>1.079254468153236</v>
       </c>
       <c r="K9">
-        <v>1.026572231860826</v>
+        <v>1.065982117983996</v>
       </c>
       <c r="L9">
-        <v>0.9862541982717915</v>
+        <v>1.078299833772769</v>
       </c>
       <c r="M9">
-        <v>1.006490701224029</v>
+        <v>1.083464039480723</v>
       </c>
       <c r="N9">
-        <v>0.9764597292331457</v>
+        <v>1.080787133290232</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9182267155683647</v>
+        <v>1.069651141306174</v>
       </c>
       <c r="D10">
-        <v>0.999638260380201</v>
+        <v>1.06095552566747</v>
       </c>
       <c r="E10">
-        <v>0.9485866183563003</v>
+        <v>1.071868008154136</v>
       </c>
       <c r="F10">
-        <v>0.9718672976831091</v>
+        <v>1.077425635949529</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035475904719147</v>
+        <v>1.041702208226538</v>
       </c>
       <c r="J10">
-        <v>0.9501074667314967</v>
+        <v>1.075759489038284</v>
       </c>
       <c r="K10">
-        <v>1.014014049220634</v>
+        <v>1.064314268166859</v>
       </c>
       <c r="L10">
-        <v>0.9639506413479636</v>
+        <v>1.07519016616819</v>
       </c>
       <c r="M10">
-        <v>0.986763779099584</v>
+        <v>1.080729474193555</v>
       </c>
       <c r="N10">
-        <v>0.9514567283131053</v>
+        <v>1.077287190904057</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9040593960458458</v>
+        <v>1.067895539065916</v>
       </c>
       <c r="D11">
-        <v>0.9929309000486553</v>
+        <v>1.060105045467958</v>
       </c>
       <c r="E11">
-        <v>0.9369742077771678</v>
+        <v>1.070389859488109</v>
       </c>
       <c r="F11">
-        <v>0.9615847630681635</v>
+        <v>1.076111719392015</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03295071795951</v>
+        <v>1.041459524244771</v>
       </c>
       <c r="J11">
-        <v>0.9380500724634105</v>
+        <v>1.074235984393459</v>
       </c>
       <c r="K11">
-        <v>1.007987372011576</v>
+        <v>1.063585029116225</v>
       </c>
       <c r="L11">
-        <v>0.9531913239180003</v>
+        <v>1.073833987240298</v>
       </c>
       <c r="M11">
-        <v>0.9772694123060169</v>
+        <v>1.079536225403762</v>
       </c>
       <c r="N11">
-        <v>0.9393822111621558</v>
+        <v>1.075761522707888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8985154074848376</v>
+        <v>1.067241811524915</v>
       </c>
       <c r="D12">
-        <v>0.9903239734819184</v>
+        <v>1.059788155241618</v>
       </c>
       <c r="E12">
-        <v>0.9324397939485979</v>
+        <v>1.069839365253017</v>
       </c>
       <c r="F12">
-        <v>0.9575759304751472</v>
+        <v>1.075622323842786</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031964867909443</v>
+        <v>1.041368751840932</v>
       </c>
       <c r="J12">
-        <v>0.9333355683513871</v>
+        <v>1.073668510411051</v>
       </c>
       <c r="K12">
-        <v>1.005638928777655</v>
+        <v>1.063313076137782</v>
       </c>
       <c r="L12">
-        <v>0.9489868543492141</v>
+        <v>1.07332874394442</v>
       </c>
       <c r="M12">
-        <v>0.97356368618664</v>
+        <v>1.079091584786385</v>
       </c>
       <c r="N12">
-        <v>0.9346610119135322</v>
+        <v>1.075193242847334</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.899718576656276</v>
+        <v>1.067382112504258</v>
       </c>
       <c r="D13">
-        <v>0.9908888561940514</v>
+        <v>1.059856174173485</v>
       </c>
       <c r="E13">
-        <v>0.9334233777467943</v>
+        <v>1.069957514250337</v>
       </c>
       <c r="F13">
-        <v>0.9584451963924983</v>
+        <v>1.075727362521552</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032178688558287</v>
+        <v>1.041388251421268</v>
       </c>
       <c r="J13">
-        <v>0.9343585230955638</v>
+        <v>1.073790307674652</v>
       </c>
       <c r="K13">
-        <v>1.006148089594114</v>
+        <v>1.063371460258067</v>
       </c>
       <c r="L13">
-        <v>0.9498990155302655</v>
+        <v>1.073437188868386</v>
       </c>
       <c r="M13">
-        <v>0.9743674235984078</v>
+        <v>1.079187026355784</v>
       </c>
       <c r="N13">
-        <v>0.9356854193707799</v>
+        <v>1.07531521307702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9036073029136208</v>
+        <v>1.067841535107213</v>
       </c>
       <c r="D14">
-        <v>0.9927179294660824</v>
+        <v>1.060078871431032</v>
       </c>
       <c r="E14">
-        <v>0.9366042297922204</v>
+        <v>1.070344385197434</v>
       </c>
       <c r="F14">
-        <v>0.9612575327323893</v>
+        <v>1.076071293545634</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032870269478763</v>
+        <v>1.041452033846032</v>
       </c>
       <c r="J14">
-        <v>0.937665535131334</v>
+        <v>1.07418910927509</v>
       </c>
       <c r="K14">
-        <v>1.007795645200826</v>
+        <v>1.063562571582298</v>
       </c>
       <c r="L14">
-        <v>0.952848332537567</v>
+        <v>1.073792254494907</v>
       </c>
       <c r="M14">
-        <v>0.9769670106501059</v>
+        <v>1.079499500358221</v>
       </c>
       <c r="N14">
-        <v>0.9389971277429605</v>
+        <v>1.075714581021474</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.905963779923836</v>
+        <v>1.068124384272536</v>
       </c>
       <c r="D15">
-        <v>0.9938287517429808</v>
+        <v>1.060215951475875</v>
       </c>
       <c r="E15">
-        <v>0.9385330997371245</v>
+        <v>1.070582556380112</v>
       </c>
       <c r="F15">
-        <v>0.962963801098892</v>
+        <v>1.076283020908102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033289698652938</v>
+        <v>1.041491248728073</v>
       </c>
       <c r="J15">
-        <v>0.9396700483192035</v>
+        <v>1.07443461366294</v>
       </c>
       <c r="K15">
-        <v>1.00879541406783</v>
+        <v>1.063680177648589</v>
       </c>
       <c r="L15">
-        <v>0.9546363797097827</v>
+        <v>1.07401082228033</v>
       </c>
       <c r="M15">
-        <v>0.9785436449443812</v>
+        <v>1.079691837264787</v>
       </c>
       <c r="N15">
-        <v>0.941004487569478</v>
+        <v>1.075960434053714</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9191312140322331</v>
+        <v>1.069767431081724</v>
       </c>
       <c r="D16">
-        <v>1.00006862747917</v>
+        <v>1.061011832513132</v>
       </c>
       <c r="E16">
-        <v>0.9493291706164473</v>
+        <v>1.071965908129554</v>
       </c>
       <c r="F16">
-        <v>0.9725255670995058</v>
+        <v>1.077512649380804</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035637350396793</v>
+        <v>1.041718226657635</v>
       </c>
       <c r="J16">
-        <v>0.9508776920711158</v>
+        <v>1.075860380747646</v>
       </c>
       <c r="K16">
-        <v>1.014399968844395</v>
+        <v>1.064362514970747</v>
       </c>
       <c r="L16">
-        <v>0.9646382331172215</v>
+        <v>1.075279963700342</v>
       </c>
       <c r="M16">
-        <v>0.9873710583914042</v>
+        <v>1.080808469876642</v>
       </c>
       <c r="N16">
-        <v>0.9522280474610526</v>
+        <v>1.077388225891218</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9269591445368393</v>
+        <v>1.07079524968485</v>
       </c>
       <c r="D17">
-        <v>1.003803504269112</v>
+        <v>1.061509338960968</v>
       </c>
       <c r="E17">
-        <v>0.9557611307600434</v>
+        <v>1.072831126092479</v>
       </c>
       <c r="F17">
-        <v>0.978231090796895</v>
+        <v>1.078281603233</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037035360569414</v>
+        <v>1.041859492635393</v>
       </c>
       <c r="J17">
-        <v>0.9575454868098293</v>
+        <v>1.076751972310459</v>
       </c>
       <c r="K17">
-        <v>1.017745171326378</v>
+        <v>1.064788624463698</v>
       </c>
       <c r="L17">
-        <v>0.9705919914822995</v>
+        <v>1.076073441609608</v>
       </c>
       <c r="M17">
-        <v>0.9926318862732215</v>
+        <v>1.08150642389837</v>
       </c>
       <c r="N17">
-        <v>0.9589053112331016</v>
+        <v>1.078281083616317</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9313869651951865</v>
+        <v>1.071393760904259</v>
       </c>
       <c r="D18">
-        <v>1.005924071835731</v>
+        <v>1.061798910410987</v>
       </c>
       <c r="E18">
-        <v>0.9594036356386086</v>
+        <v>1.073334899356113</v>
       </c>
       <c r="F18">
-        <v>0.9814649985242752</v>
+        <v>1.078729283479559</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037826593178205</v>
+        <v>1.041941492923641</v>
       </c>
       <c r="J18">
-        <v>0.9613184963471397</v>
+        <v>1.077271046192388</v>
       </c>
       <c r="K18">
-        <v>1.019641325624278</v>
+        <v>1.065036488303172</v>
       </c>
       <c r="L18">
-        <v>0.9739619481925141</v>
+        <v>1.076535333686661</v>
       </c>
       <c r="M18">
-        <v>0.9956115285581487</v>
+        <v>1.081912647092098</v>
       </c>
       <c r="N18">
-        <v>0.9626836788767253</v>
+        <v>1.078800894642697</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9328747542934529</v>
+        <v>1.071597670240845</v>
       </c>
       <c r="D19">
-        <v>1.006637856834487</v>
+        <v>1.061897543055188</v>
       </c>
       <c r="E19">
-        <v>0.9606282283545303</v>
+        <v>1.073506522845039</v>
       </c>
       <c r="F19">
-        <v>0.9825526622727236</v>
+        <v>1.078881790015458</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038092499543629</v>
+        <v>1.041969385688961</v>
       </c>
       <c r="J19">
-        <v>0.9625864723626963</v>
+        <v>1.077447872879995</v>
       </c>
       <c r="K19">
-        <v>1.020279053480548</v>
+        <v>1.065120889022843</v>
       </c>
       <c r="L19">
-        <v>0.9750946228855654</v>
+        <v>1.076692670522273</v>
       </c>
       <c r="M19">
-        <v>0.996613310394587</v>
+        <v>1.082051010314012</v>
       </c>
       <c r="N19">
-        <v>0.9639534555636629</v>
+        <v>1.078977972444483</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.926133917560485</v>
+        <v>1.07068507812163</v>
       </c>
       <c r="D20">
-        <v>1.003408914027066</v>
+        <v>1.061456025071037</v>
       </c>
       <c r="E20">
-        <v>0.9550826042041289</v>
+        <v>1.072738389176228</v>
       </c>
       <c r="F20">
-        <v>0.9776288974237997</v>
+        <v>1.078199188678589</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036887925266856</v>
+        <v>1.04184437733672</v>
       </c>
       <c r="J20">
-        <v>0.9568424070148445</v>
+        <v>1.076656414330758</v>
       </c>
       <c r="K20">
-        <v>1.017392085473016</v>
+        <v>1.064742977298954</v>
       </c>
       <c r="L20">
-        <v>0.9699640949116818</v>
+        <v>1.075988405472673</v>
       </c>
       <c r="M20">
-        <v>0.9920768623707511</v>
+        <v>1.081431631496501</v>
       </c>
       <c r="N20">
-        <v>0.9582012329841636</v>
+        <v>1.078185389933324</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9024705416283506</v>
+        <v>1.067706291760919</v>
       </c>
       <c r="D21">
-        <v>0.9921827274614101</v>
+        <v>1.060013319989344</v>
       </c>
       <c r="E21">
-        <v>0.9356741073297359</v>
+        <v>1.070230501592181</v>
       </c>
       <c r="F21">
-        <v>0.960434983741726</v>
+        <v>1.075970051980253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032668028874859</v>
+        <v>1.041433268937818</v>
       </c>
       <c r="J21">
-        <v>0.9366987050897411</v>
+        <v>1.07407171607593</v>
       </c>
       <c r="K21">
-        <v>1.007313729527546</v>
+        <v>1.06350632408456</v>
       </c>
       <c r="L21">
-        <v>0.9519860026703143</v>
+        <v>1.073687738236354</v>
       </c>
       <c r="M21">
-        <v>0.9762068043677783</v>
+        <v>1.079407523920267</v>
       </c>
       <c r="N21">
-        <v>0.9380289246918118</v>
+        <v>1.075597021110505</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8859125228331601</v>
+        <v>1.065824015429978</v>
       </c>
       <c r="D22">
-        <v>0.9844371127735152</v>
+        <v>1.0591005291463</v>
       </c>
       <c r="E22">
-        <v>0.9221537573897159</v>
+        <v>1.068645314443235</v>
       </c>
       <c r="F22">
-        <v>0.9484960916917287</v>
+        <v>1.074560683207125</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029730143249644</v>
+        <v>1.041171146578743</v>
       </c>
       <c r="J22">
-        <v>0.9226274619340034</v>
+        <v>1.072437466546985</v>
       </c>
       <c r="K22">
-        <v>1.000323308994945</v>
+        <v>1.062722524798447</v>
       </c>
       <c r="L22">
-        <v>0.9394429589927135</v>
+        <v>1.072232527242017</v>
       </c>
       <c r="M22">
-        <v>0.9651618829968837</v>
+        <v>1.078126681621149</v>
       </c>
       <c r="N22">
-        <v>0.9239376987567985</v>
+        <v>1.073960450759779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8948765011450478</v>
+        <v>1.06682275611039</v>
       </c>
       <c r="D23">
-        <v>0.9886185313664504</v>
+        <v>1.059584965383454</v>
       </c>
       <c r="E23">
-        <v>0.9294666757621191</v>
+        <v>1.069486462389386</v>
       </c>
       <c r="F23">
-        <v>0.9549494325859829</v>
+        <v>1.075308571279914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031318655505916</v>
+        <v>1.04131045072131</v>
       </c>
       <c r="J23">
-        <v>0.9302424011510306</v>
+        <v>1.073304697399482</v>
       </c>
       <c r="K23">
-        <v>1.004100752490599</v>
+        <v>1.063138633097936</v>
       </c>
       <c r="L23">
-        <v>0.946229137945868</v>
+        <v>1.073004801079237</v>
       </c>
       <c r="M23">
-        <v>0.9711345262999534</v>
+        <v>1.078806471070562</v>
       </c>
       <c r="N23">
-        <v>0.9315634520609599</v>
+        <v>1.074828913179558</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9265072246727454</v>
+        <v>1.070734862989811</v>
       </c>
       <c r="D24">
-        <v>1.00358738979144</v>
+        <v>1.0614801172245</v>
       </c>
       <c r="E24">
-        <v>0.9553895352682713</v>
+        <v>1.072780295756381</v>
       </c>
       <c r="F24">
-        <v>0.9779012905798151</v>
+        <v>1.078236430854462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036954619092269</v>
+        <v>1.041851208518322</v>
       </c>
       <c r="J24">
-        <v>0.9571604541930527</v>
+        <v>1.076699595883257</v>
       </c>
       <c r="K24">
-        <v>1.017551798372815</v>
+        <v>1.064763605383886</v>
       </c>
       <c r="L24">
-        <v>0.9702481289477264</v>
+        <v>1.076026832514781</v>
       </c>
       <c r="M24">
-        <v>0.9923279260056074</v>
+        <v>1.081465429685914</v>
       </c>
       <c r="N24">
-        <v>0.9585197318258456</v>
+        <v>1.078228632808581</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.957849325615825</v>
+        <v>1.075235694460167</v>
       </c>
       <c r="D25">
-        <v>1.018707610738616</v>
+        <v>1.063655262380905</v>
       </c>
       <c r="E25">
-        <v>0.9812319487344315</v>
+        <v>1.076567706755553</v>
       </c>
       <c r="F25">
-        <v>1.000883258605421</v>
+        <v>1.081601329960672</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042554175721739</v>
+        <v>1.04246315285916</v>
       </c>
       <c r="J25">
-        <v>0.9838835371875669</v>
+        <v>1.080601056527492</v>
       </c>
       <c r="K25">
-        <v>1.031022294066366</v>
+        <v>1.066622748955294</v>
       </c>
       <c r="L25">
-        <v>0.9941287734568868</v>
+        <v>1.079497395341024</v>
       </c>
       <c r="M25">
-        <v>1.013467878578196</v>
+        <v>1.084516549485469</v>
       </c>
       <c r="N25">
-        <v>0.9852807646633921</v>
+        <v>1.082135633974434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_130/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.078796209455121</v>
+        <v>0.9798906575194938</v>
       </c>
       <c r="D2">
-        <v>1.065371551027789</v>
+        <v>1.029481219910614</v>
       </c>
       <c r="E2">
-        <v>1.079562070010494</v>
+        <v>0.9994810698302924</v>
       </c>
       <c r="F2">
-        <v>1.084260198779201</v>
+        <v>1.017161158257422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042938977784816</v>
+        <v>1.046474378521635</v>
       </c>
       <c r="J2">
-        <v>1.083683902046142</v>
+        <v>1.002689934680763</v>
       </c>
       <c r="K2">
-        <v>1.068084970606566</v>
+        <v>1.040544562832225</v>
       </c>
       <c r="L2">
-        <v>1.082237796409068</v>
+        <v>1.010947638911577</v>
       </c>
       <c r="M2">
-        <v>1.086923680630766</v>
+        <v>1.028386478032667</v>
       </c>
       <c r="N2">
-        <v>1.085222857487328</v>
+        <v>1.004113869398152</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.081365451188037</v>
+        <v>0.994606718014075</v>
       </c>
       <c r="D3">
-        <v>1.066607333607261</v>
+        <v>1.036725916080496</v>
       </c>
       <c r="E3">
-        <v>1.081721707774545</v>
+        <v>1.011693371144197</v>
       </c>
       <c r="F3">
-        <v>1.086176982265449</v>
+        <v>1.028072023619824</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04327750284408</v>
+        <v>1.049071663621679</v>
       </c>
       <c r="J3">
-        <v>1.085906404367815</v>
+        <v>1.015245496985775</v>
       </c>
       <c r="K3">
-        <v>1.069135088482449</v>
+        <v>1.046909495179403</v>
       </c>
       <c r="L3">
-        <v>1.08421227103245</v>
+        <v>1.022178787828134</v>
       </c>
       <c r="M3">
-        <v>1.088656794800199</v>
+        <v>1.038357888054284</v>
       </c>
       <c r="N3">
-        <v>1.087448516017222</v>
+        <v>1.016687262041781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.083020839256943</v>
+        <v>1.003633745395554</v>
       </c>
       <c r="D4">
-        <v>1.067402283777456</v>
+        <v>1.04118652602271</v>
       </c>
       <c r="E4">
-        <v>1.083112673978134</v>
+        <v>1.019193901226838</v>
       </c>
       <c r="F4">
-        <v>1.087411109476947</v>
+        <v>1.034778876316099</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043493374184057</v>
+        <v>1.050653139624248</v>
       </c>
       <c r="J4">
-        <v>1.087337427875716</v>
+        <v>1.022944954132428</v>
       </c>
       <c r="K4">
-        <v>1.069809345860253</v>
+        <v>1.050812034363434</v>
       </c>
       <c r="L4">
-        <v>1.08548305714028</v>
+        <v>1.029066063091013</v>
       </c>
       <c r="M4">
-        <v>1.089771654960703</v>
+        <v>1.04447491705462</v>
       </c>
       <c r="N4">
-        <v>1.088881571742646</v>
+        <v>1.024397653300723</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.083715115140304</v>
+        <v>1.007322302398719</v>
       </c>
       <c r="D5">
-        <v>1.067735377492369</v>
+        <v>1.043012276281495</v>
       </c>
       <c r="E5">
-        <v>1.083695926238086</v>
+        <v>1.022260509869062</v>
       </c>
       <c r="F5">
-        <v>1.087928493547466</v>
+        <v>1.03752202625237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043583372508979</v>
+        <v>1.051296222053603</v>
       </c>
       <c r="J5">
-        <v>1.087937374468997</v>
+        <v>1.026090257843665</v>
       </c>
       <c r="K5">
-        <v>1.070091566713916</v>
+        <v>1.052405583905458</v>
       </c>
       <c r="L5">
-        <v>1.086015695845035</v>
+        <v>1.0318794368797</v>
       </c>
       <c r="M5">
-        <v>1.090238796876561</v>
+        <v>1.046973949380786</v>
       </c>
       <c r="N5">
-        <v>1.089482370328904</v>
+        <v>1.027547423704001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.083831591742855</v>
+        <v>1.007935703500084</v>
       </c>
       <c r="D6">
-        <v>1.067791241210802</v>
+        <v>1.043316053608958</v>
       </c>
       <c r="E6">
-        <v>1.083793769398386</v>
+        <v>1.022770576152499</v>
       </c>
       <c r="F6">
-        <v>1.088015280904546</v>
+        <v>1.037978344727949</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043598439599718</v>
+        <v>1.05140297308055</v>
       </c>
       <c r="J6">
-        <v>1.088038012212919</v>
+        <v>1.026613263889747</v>
       </c>
       <c r="K6">
-        <v>1.070138880800774</v>
+        <v>1.052670508059519</v>
       </c>
       <c r="L6">
-        <v>1.086105035442126</v>
+        <v>1.032347236761703</v>
       </c>
       <c r="M6">
-        <v>1.090317142311444</v>
+        <v>1.047389492259428</v>
       </c>
       <c r="N6">
-        <v>1.089583150989965</v>
+        <v>1.028071172478658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.083030122623678</v>
+        <v>1.003683435623365</v>
       </c>
       <c r="D7">
-        <v>1.067406738903143</v>
+        <v>1.041211110356586</v>
       </c>
       <c r="E7">
-        <v>1.083120473306175</v>
+        <v>1.019235206297789</v>
       </c>
       <c r="F7">
-        <v>1.087418028415809</v>
+        <v>1.034815820883318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043494579699833</v>
+        <v>1.050661815703135</v>
       </c>
       <c r="J7">
-        <v>1.087345450843356</v>
+        <v>1.022987329386668</v>
       </c>
       <c r="K7">
-        <v>1.069813121746203</v>
+        <v>1.050833506868184</v>
       </c>
       <c r="L7">
-        <v>1.085490180523141</v>
+        <v>1.029103967156583</v>
       </c>
       <c r="M7">
-        <v>1.089777902965455</v>
+        <v>1.044508585185159</v>
       </c>
       <c r="N7">
-        <v>1.08888960610382</v>
+        <v>1.024440088732684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.079665991512102</v>
+        <v>0.9849745839625993</v>
       </c>
       <c r="D8">
-        <v>1.065790170254847</v>
+        <v>1.031979860274492</v>
       </c>
       <c r="E8">
-        <v>1.080293290844371</v>
+        <v>1.003697721930564</v>
       </c>
       <c r="F8">
-        <v>1.084909279391052</v>
+        <v>1.020927031655874</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043054045739554</v>
+        <v>1.047373962281436</v>
       </c>
       <c r="J8">
-        <v>1.084436498342091</v>
+        <v>1.007027804762026</v>
       </c>
       <c r="K8">
-        <v>1.06844095815391</v>
+        <v>1.042743390910127</v>
       </c>
       <c r="L8">
-        <v>1.082906515338492</v>
+        <v>1.014827837114231</v>
       </c>
       <c r="M8">
-        <v>1.087510775502377</v>
+        <v>1.031830802208314</v>
       </c>
       <c r="N8">
-        <v>1.085976522556342</v>
+        <v>1.008457899752492</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.073681604954219</v>
+        <v>0.9475226072515237</v>
       </c>
       <c r="D9">
-        <v>1.062904879800143</v>
+        <v>1.013697546382335</v>
       </c>
       <c r="E9">
-        <v>1.075260224723335</v>
+        <v>0.972702140963956</v>
       </c>
       <c r="F9">
-        <v>1.080439926693055</v>
+        <v>0.9932877759675818</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042253136059071</v>
+        <v>1.040710417613731</v>
       </c>
       <c r="J9">
-        <v>1.079254468153236</v>
+        <v>0.9750750108750335</v>
       </c>
       <c r="K9">
-        <v>1.065982117983996</v>
+        <v>1.026572231860824</v>
       </c>
       <c r="L9">
-        <v>1.078299833772769</v>
+        <v>0.9862541982717891</v>
       </c>
       <c r="M9">
-        <v>1.083464039480723</v>
+        <v>1.006490701224027</v>
       </c>
       <c r="N9">
-        <v>1.080787133290232</v>
+        <v>0.9764597292331427</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069651141306174</v>
+        <v>0.9182267155683645</v>
       </c>
       <c r="D10">
-        <v>1.06095552566747</v>
+        <v>0.9996382603802005</v>
       </c>
       <c r="E10">
-        <v>1.071868008154136</v>
+        <v>0.9485866183562999</v>
       </c>
       <c r="F10">
-        <v>1.077425635949529</v>
+        <v>0.9718672976831085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041702208226538</v>
+        <v>1.035475904719147</v>
       </c>
       <c r="J10">
-        <v>1.075759489038284</v>
+        <v>0.9501074667314966</v>
       </c>
       <c r="K10">
-        <v>1.064314268166859</v>
+        <v>1.014014049220634</v>
       </c>
       <c r="L10">
-        <v>1.07519016616819</v>
+        <v>0.9639506413479634</v>
       </c>
       <c r="M10">
-        <v>1.080729474193555</v>
+        <v>0.9867637790995835</v>
       </c>
       <c r="N10">
-        <v>1.077287190904057</v>
+        <v>0.9514567283131049</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067895539065916</v>
+        <v>0.9040593960458457</v>
       </c>
       <c r="D11">
-        <v>1.060105045467958</v>
+        <v>0.9929309000486549</v>
       </c>
       <c r="E11">
-        <v>1.070389859488109</v>
+        <v>0.9369742077771679</v>
       </c>
       <c r="F11">
-        <v>1.076111719392015</v>
+        <v>0.9615847630681635</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041459524244771</v>
+        <v>1.032950717959509</v>
       </c>
       <c r="J11">
-        <v>1.074235984393459</v>
+        <v>0.9380500724634107</v>
       </c>
       <c r="K11">
-        <v>1.063585029116225</v>
+        <v>1.007987372011575</v>
       </c>
       <c r="L11">
-        <v>1.073833987240298</v>
+        <v>0.9531913239180004</v>
       </c>
       <c r="M11">
-        <v>1.079536225403762</v>
+        <v>0.9772694123060167</v>
       </c>
       <c r="N11">
-        <v>1.075761522707888</v>
+        <v>0.9393822111621556</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067241811524915</v>
+        <v>0.8985154074848382</v>
       </c>
       <c r="D12">
-        <v>1.059788155241618</v>
+        <v>0.9903239734819189</v>
       </c>
       <c r="E12">
-        <v>1.069839365253017</v>
+        <v>0.9324397939485983</v>
       </c>
       <c r="F12">
-        <v>1.075622323842786</v>
+        <v>0.9575759304751474</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041368751840932</v>
+        <v>1.031964867909443</v>
       </c>
       <c r="J12">
-        <v>1.073668510411051</v>
+        <v>0.9333355683513876</v>
       </c>
       <c r="K12">
-        <v>1.063313076137782</v>
+        <v>1.005638928777656</v>
       </c>
       <c r="L12">
-        <v>1.07332874394442</v>
+        <v>0.9489868543492145</v>
       </c>
       <c r="M12">
-        <v>1.079091584786385</v>
+        <v>0.9735636861866407</v>
       </c>
       <c r="N12">
-        <v>1.075193242847334</v>
+        <v>0.9346610119135328</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067382112504258</v>
+        <v>0.899718576656276</v>
       </c>
       <c r="D13">
-        <v>1.059856174173485</v>
+        <v>0.9908888561940513</v>
       </c>
       <c r="E13">
-        <v>1.069957514250337</v>
+        <v>0.9334233777467942</v>
       </c>
       <c r="F13">
-        <v>1.075727362521552</v>
+        <v>0.9584451963924981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041388251421268</v>
+        <v>1.032178688558287</v>
       </c>
       <c r="J13">
-        <v>1.073790307674652</v>
+        <v>0.9343585230955638</v>
       </c>
       <c r="K13">
-        <v>1.063371460258067</v>
+        <v>1.006148089594113</v>
       </c>
       <c r="L13">
-        <v>1.073437188868386</v>
+        <v>0.9498990155302656</v>
       </c>
       <c r="M13">
-        <v>1.079187026355784</v>
+        <v>0.9743674235984074</v>
       </c>
       <c r="N13">
-        <v>1.07531521307702</v>
+        <v>0.9356854193707802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067841535107213</v>
+        <v>0.9036073029136212</v>
       </c>
       <c r="D14">
-        <v>1.060078871431032</v>
+        <v>0.9927179294660825</v>
       </c>
       <c r="E14">
-        <v>1.070344385197434</v>
+        <v>0.9366042297922211</v>
       </c>
       <c r="F14">
-        <v>1.076071293545634</v>
+        <v>0.9612575327323898</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041452033846032</v>
+        <v>1.032870269478763</v>
       </c>
       <c r="J14">
-        <v>1.07418910927509</v>
+        <v>0.9376655351313345</v>
       </c>
       <c r="K14">
-        <v>1.063562571582298</v>
+        <v>1.007795645200826</v>
       </c>
       <c r="L14">
-        <v>1.073792254494907</v>
+        <v>0.9528483325375676</v>
       </c>
       <c r="M14">
-        <v>1.079499500358221</v>
+        <v>0.9769670106501064</v>
       </c>
       <c r="N14">
-        <v>1.075714581021474</v>
+        <v>0.9389971277429611</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.068124384272536</v>
+        <v>0.9059637799238356</v>
       </c>
       <c r="D15">
-        <v>1.060215951475875</v>
+        <v>0.9938287517429807</v>
       </c>
       <c r="E15">
-        <v>1.070582556380112</v>
+        <v>0.9385330997371243</v>
       </c>
       <c r="F15">
-        <v>1.076283020908102</v>
+        <v>0.962963801098892</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041491248728073</v>
+        <v>1.033289698652938</v>
       </c>
       <c r="J15">
-        <v>1.07443461366294</v>
+        <v>0.9396700483192031</v>
       </c>
       <c r="K15">
-        <v>1.063680177648589</v>
+        <v>1.00879541406783</v>
       </c>
       <c r="L15">
-        <v>1.07401082228033</v>
+        <v>0.9546363797097823</v>
       </c>
       <c r="M15">
-        <v>1.079691837264787</v>
+        <v>0.9785436449443813</v>
       </c>
       <c r="N15">
-        <v>1.075960434053714</v>
+        <v>0.9410044875694772</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069767431081724</v>
+        <v>0.9191312140322335</v>
       </c>
       <c r="D16">
-        <v>1.061011832513132</v>
+        <v>1.00006862747917</v>
       </c>
       <c r="E16">
-        <v>1.071965908129554</v>
+        <v>0.9493291706164476</v>
       </c>
       <c r="F16">
-        <v>1.077512649380804</v>
+        <v>0.9725255670995061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041718226657635</v>
+        <v>1.035637350396793</v>
       </c>
       <c r="J16">
-        <v>1.075860380747646</v>
+        <v>0.9508776920711164</v>
       </c>
       <c r="K16">
-        <v>1.064362514970747</v>
+        <v>1.014399968844396</v>
       </c>
       <c r="L16">
-        <v>1.075279963700342</v>
+        <v>0.9646382331172222</v>
       </c>
       <c r="M16">
-        <v>1.080808469876642</v>
+        <v>0.9873710583914045</v>
       </c>
       <c r="N16">
-        <v>1.077388225891218</v>
+        <v>0.9522280474610529</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.07079524968485</v>
+        <v>0.9269591445368394</v>
       </c>
       <c r="D17">
-        <v>1.061509338960968</v>
+        <v>1.003803504269112</v>
       </c>
       <c r="E17">
-        <v>1.072831126092479</v>
+        <v>0.9557611307600435</v>
       </c>
       <c r="F17">
-        <v>1.078281603233</v>
+        <v>0.978231090796895</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041859492635393</v>
+        <v>1.037035360569414</v>
       </c>
       <c r="J17">
-        <v>1.076751972310459</v>
+        <v>0.9575454868098294</v>
       </c>
       <c r="K17">
-        <v>1.064788624463698</v>
+        <v>1.017745171326378</v>
       </c>
       <c r="L17">
-        <v>1.076073441609608</v>
+        <v>0.9705919914822995</v>
       </c>
       <c r="M17">
-        <v>1.08150642389837</v>
+        <v>0.9926318862732214</v>
       </c>
       <c r="N17">
-        <v>1.078281083616317</v>
+        <v>0.9589053112331019</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.071393760904259</v>
+        <v>0.9313869651951877</v>
       </c>
       <c r="D18">
-        <v>1.061798910410987</v>
+        <v>1.005924071835731</v>
       </c>
       <c r="E18">
-        <v>1.073334899356113</v>
+        <v>0.9594036356386102</v>
       </c>
       <c r="F18">
-        <v>1.078729283479559</v>
+        <v>0.9814649985242762</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041941492923641</v>
+        <v>1.037826593178205</v>
       </c>
       <c r="J18">
-        <v>1.077271046192388</v>
+        <v>0.9613184963471411</v>
       </c>
       <c r="K18">
-        <v>1.065036488303172</v>
+        <v>1.019641325624278</v>
       </c>
       <c r="L18">
-        <v>1.076535333686661</v>
+        <v>0.9739619481925155</v>
       </c>
       <c r="M18">
-        <v>1.081912647092098</v>
+        <v>0.9956115285581496</v>
       </c>
       <c r="N18">
-        <v>1.078800894642697</v>
+        <v>0.9626836788767268</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.071597670240845</v>
+        <v>0.9328747542934542</v>
       </c>
       <c r="D19">
-        <v>1.061897543055188</v>
+        <v>1.006637856834487</v>
       </c>
       <c r="E19">
-        <v>1.073506522845039</v>
+        <v>0.9606282283545315</v>
       </c>
       <c r="F19">
-        <v>1.078881790015458</v>
+        <v>0.9825526622727243</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041969385688961</v>
+        <v>1.038092499543629</v>
       </c>
       <c r="J19">
-        <v>1.077447872879995</v>
+        <v>0.9625864723626977</v>
       </c>
       <c r="K19">
-        <v>1.065120889022843</v>
+        <v>1.020279053480549</v>
       </c>
       <c r="L19">
-        <v>1.076692670522273</v>
+        <v>0.9750946228855664</v>
       </c>
       <c r="M19">
-        <v>1.082051010314012</v>
+        <v>0.9966133103945878</v>
       </c>
       <c r="N19">
-        <v>1.078977972444483</v>
+        <v>0.9639534555636644</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.07068507812163</v>
+        <v>0.9261339175604837</v>
       </c>
       <c r="D20">
-        <v>1.061456025071037</v>
+        <v>1.003408914027066</v>
       </c>
       <c r="E20">
-        <v>1.072738389176228</v>
+        <v>0.9550826042041276</v>
       </c>
       <c r="F20">
-        <v>1.078199188678589</v>
+        <v>0.9776288974237989</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04184437733672</v>
+        <v>1.036887925266856</v>
       </c>
       <c r="J20">
-        <v>1.076656414330758</v>
+        <v>0.9568424070148435</v>
       </c>
       <c r="K20">
-        <v>1.064742977298954</v>
+        <v>1.017392085473016</v>
       </c>
       <c r="L20">
-        <v>1.075988405472673</v>
+        <v>0.9699640949116806</v>
       </c>
       <c r="M20">
-        <v>1.081431631496501</v>
+        <v>0.9920768623707502</v>
       </c>
       <c r="N20">
-        <v>1.078185389933324</v>
+        <v>0.9582012329841626</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067706291760919</v>
+        <v>0.9024705416283533</v>
       </c>
       <c r="D21">
-        <v>1.060013319989344</v>
+        <v>0.9921827274614117</v>
       </c>
       <c r="E21">
-        <v>1.070230501592181</v>
+        <v>0.9356741073297381</v>
       </c>
       <c r="F21">
-        <v>1.075970051980253</v>
+        <v>0.9604349837417285</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041433268937818</v>
+        <v>1.03266802887486</v>
       </c>
       <c r="J21">
-        <v>1.07407171607593</v>
+        <v>0.9366987050897436</v>
       </c>
       <c r="K21">
-        <v>1.06350632408456</v>
+        <v>1.007313729527547</v>
       </c>
       <c r="L21">
-        <v>1.073687738236354</v>
+        <v>0.9519860026703164</v>
       </c>
       <c r="M21">
-        <v>1.079407523920267</v>
+        <v>0.9762068043677806</v>
       </c>
       <c r="N21">
-        <v>1.075597021110505</v>
+        <v>0.9380289246918143</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065824015429978</v>
+        <v>0.885912522833158</v>
       </c>
       <c r="D22">
-        <v>1.0591005291463</v>
+        <v>0.9844371127735135</v>
       </c>
       <c r="E22">
-        <v>1.068645314443235</v>
+        <v>0.9221537573897138</v>
       </c>
       <c r="F22">
-        <v>1.074560683207125</v>
+        <v>0.9484960916917268</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041171146578743</v>
+        <v>1.029730143249643</v>
       </c>
       <c r="J22">
-        <v>1.072437466546985</v>
+        <v>0.9226274619340011</v>
       </c>
       <c r="K22">
-        <v>1.062722524798447</v>
+        <v>1.000323308994943</v>
       </c>
       <c r="L22">
-        <v>1.072232527242017</v>
+        <v>0.9394429589927115</v>
       </c>
       <c r="M22">
-        <v>1.078126681621149</v>
+        <v>0.9651618829968818</v>
       </c>
       <c r="N22">
-        <v>1.073960450759779</v>
+        <v>0.9239376987567962</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06682275611039</v>
+        <v>0.8948765011450457</v>
       </c>
       <c r="D23">
-        <v>1.059584965383454</v>
+        <v>0.9886185313664494</v>
       </c>
       <c r="E23">
-        <v>1.069486462389386</v>
+        <v>0.9294666757621174</v>
       </c>
       <c r="F23">
-        <v>1.075308571279914</v>
+        <v>0.9549494325859813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04131045072131</v>
+        <v>1.031318655505916</v>
       </c>
       <c r="J23">
-        <v>1.073304697399482</v>
+        <v>0.9302424011510287</v>
       </c>
       <c r="K23">
-        <v>1.063138633097936</v>
+        <v>1.004100752490598</v>
       </c>
       <c r="L23">
-        <v>1.073004801079237</v>
+        <v>0.9462291379458666</v>
       </c>
       <c r="M23">
-        <v>1.078806471070562</v>
+        <v>0.9711345262999516</v>
       </c>
       <c r="N23">
-        <v>1.074828913179558</v>
+        <v>0.9315634520609583</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.070734862989811</v>
+        <v>0.9265072246727449</v>
       </c>
       <c r="D24">
-        <v>1.0614801172245</v>
+        <v>1.00358738979144</v>
       </c>
       <c r="E24">
-        <v>1.072780295756381</v>
+        <v>0.9553895352682709</v>
       </c>
       <c r="F24">
-        <v>1.078236430854462</v>
+        <v>0.9779012905798149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041851208518322</v>
+        <v>1.036954619092269</v>
       </c>
       <c r="J24">
-        <v>1.076699595883257</v>
+        <v>0.9571604541930523</v>
       </c>
       <c r="K24">
-        <v>1.064763605383886</v>
+        <v>1.017551798372816</v>
       </c>
       <c r="L24">
-        <v>1.076026832514781</v>
+        <v>0.9702481289477259</v>
       </c>
       <c r="M24">
-        <v>1.081465429685914</v>
+        <v>0.9923279260056072</v>
       </c>
       <c r="N24">
-        <v>1.078228632808581</v>
+        <v>0.9585197318258452</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.075235694460167</v>
+        <v>0.957849325615824</v>
       </c>
       <c r="D25">
-        <v>1.063655262380905</v>
+        <v>1.018707610738615</v>
       </c>
       <c r="E25">
-        <v>1.076567706755553</v>
+        <v>0.9812319487344304</v>
       </c>
       <c r="F25">
-        <v>1.081601329960672</v>
+        <v>1.00088325860542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04246315285916</v>
+        <v>1.042554175721738</v>
       </c>
       <c r="J25">
-        <v>1.080601056527492</v>
+        <v>0.9838835371875659</v>
       </c>
       <c r="K25">
-        <v>1.066622748955294</v>
+        <v>1.031022294066365</v>
       </c>
       <c r="L25">
-        <v>1.079497395341024</v>
+        <v>0.9941287734568858</v>
       </c>
       <c r="M25">
-        <v>1.084516549485469</v>
+        <v>1.013467878578195</v>
       </c>
       <c r="N25">
-        <v>1.082135633974434</v>
+        <v>0.9852807646633914</v>
       </c>
     </row>
   </sheetData>
